--- a/src/net/datenwerke/rs/samples/templates/jxls/jxlsreports/grouping_nested_result.xlsx
+++ b/src/net/datenwerke/rs/samples/templates/jxls/jxlsreports/grouping_nested_result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/git/reportserver-samples/src/net/datenwerke/rs/samples/templates/jxls/jxlsreports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E67180-EC6B-8E4B-8AF9-7CBA133DA409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4155DC80-EF18-4144-8F33-28F7673B1855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30080" windowHeight="16820" xr2:uid="{1CB611AB-0FA2-4BD9-BB46-7BDCE764CC6B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="100">
   <si>
     <t>${customer.t_agg_customer_cus_contactfirstname}</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>${stateGroup.item.t_agg_customer_cus_state}</t>
+  </si>
+  <si>
+    <t>(Version: 1.0.1)</t>
+  </si>
+  <si>
+    <t>(Last tested with: ReportServer 4.3.0-6083) </t>
   </si>
   <si>
     <t/>
@@ -458,13 +464,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -787,7 +793,7 @@
   <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -798,10 +804,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" customHeight="true" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2" ht="15.0" customHeight="true">
@@ -815,640 +821,640 @@
     </row>
     <row r="3" spans="1:3" ht="24.0" x14ac:dyDescent="0.3" customHeight="true">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2" ht="15.0" customHeight="true">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2" ht="15.0" customHeight="true">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="n">
         <v>107800.0</v>
       </c>
     </row>
-    <row r="6" ht="15.0" customHeight="true">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2" ht="15.0" customHeight="true">
       <c r="A6" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C6" t="n" s="7">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n" s="5">
         <v>93300.0</v>
       </c>
     </row>
-    <row r="7" ht="15.0" customHeight="true">
-      <c r="A7" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2" ht="15.0" customHeight="true">
+      <c r="A7" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="C8" t="n" s="7">
+        <v>19</v>
+      </c>
+      <c r="C8" t="n" s="5">
         <v>51600.0</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="true">
-      <c r="A9" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="C10" t="n" s="7">
+        <v>22</v>
+      </c>
+      <c r="C10" t="n" s="5">
         <v>117300.0</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="true">
       <c r="A11" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C11" t="n" s="7">
+        <v>24</v>
+      </c>
+      <c r="C11" t="n" s="5">
         <v>60300.0</v>
       </c>
     </row>
     <row r="12" ht="24.0" customHeight="true">
       <c r="A12" t="s" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" ht="15.0" customHeight="true">
-      <c r="A13" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C14" t="n" s="7">
+        <v>28</v>
+      </c>
+      <c r="C14" t="n" s="5">
         <v>90300.0</v>
       </c>
     </row>
     <row r="15" ht="15.0" customHeight="true">
       <c r="A15" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="C15" t="n" s="7">
+        <v>30</v>
+      </c>
+      <c r="C15" t="n" s="5">
         <v>89600.0</v>
       </c>
     </row>
     <row r="16" ht="15.0" customHeight="true">
-      <c r="A16" t="s" s="6">
-        <v>29</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" ht="15.0" customHeight="true">
       <c r="A17" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C17" t="n" s="7">
+        <v>33</v>
+      </c>
+      <c r="C17" t="n" s="5">
         <v>48700.0</v>
       </c>
     </row>
     <row r="18" ht="24.0" customHeight="true">
       <c r="A18" t="s" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" ht="15.0" customHeight="true">
-      <c r="A19" t="s" s="6">
-        <v>33</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="A19" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" ht="15.0" customHeight="true">
       <c r="A20" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="C20" t="n" s="7">
+        <v>37</v>
+      </c>
+      <c r="C20" t="n" s="5">
         <v>81200.0</v>
       </c>
     </row>
     <row r="21" ht="15.0" customHeight="true">
-      <c r="A21" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" ht="15.0" customHeight="true">
       <c r="A22" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C22" t="n" s="7">
+        <v>40</v>
+      </c>
+      <c r="C22" t="n" s="5">
         <v>94400.0</v>
       </c>
     </row>
     <row r="23" ht="24.0" customHeight="true">
       <c r="A23" t="s" s="3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" ht="15.0" customHeight="true">
-      <c r="A24" t="s" s="6">
-        <v>40</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A24" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" ht="15.0" customHeight="true">
       <c r="A25" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="C25" t="n" s="7">
+        <v>44</v>
+      </c>
+      <c r="C25" t="n" s="5">
         <v>72600.0</v>
       </c>
     </row>
     <row r="26" ht="15.0" customHeight="true">
       <c r="A26" t="s" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="C26" t="n" s="7">
+        <v>46</v>
+      </c>
+      <c r="C26" t="n" s="5">
         <v>100600.0</v>
       </c>
     </row>
     <row r="27" ht="15.0" customHeight="true">
       <c r="A27" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="C27" t="n" s="7">
+        <v>48</v>
+      </c>
+      <c r="C27" t="n" s="5">
         <v>81100.0</v>
       </c>
     </row>
     <row r="28" ht="15.0" customHeight="true">
-      <c r="A28" t="s" s="6">
-        <v>47</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="A28" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" ht="15.0" customHeight="true">
       <c r="A29" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="C29" t="n" s="7">
+        <v>51</v>
+      </c>
+      <c r="C29" t="n" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="15.0" customHeight="true">
       <c r="A30" t="s" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="C30" t="n" s="7">
+        <v>53</v>
+      </c>
+      <c r="C30" t="n" s="5">
         <v>49700.0</v>
       </c>
     </row>
     <row r="31" ht="15.0" customHeight="true">
       <c r="A31" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="C31" t="n" s="7">
+        <v>55</v>
+      </c>
+      <c r="C31" t="n" s="5">
         <v>84300.0</v>
       </c>
     </row>
     <row r="32" ht="15.0" customHeight="true">
       <c r="A32" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="C32" t="n" s="7">
+        <v>57</v>
+      </c>
+      <c r="C32" t="n" s="5">
         <v>95400.0</v>
       </c>
     </row>
     <row r="33" ht="15.0" customHeight="true">
-      <c r="A33" t="s" s="6">
-        <v>56</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="A33" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
     </row>
     <row r="34" ht="15.0" customHeight="true">
       <c r="A34" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="C34" t="n" s="7">
+        <v>59</v>
+      </c>
+      <c r="C34" t="n" s="5">
         <v>23000.0</v>
       </c>
     </row>
     <row r="35" ht="15.0" customHeight="true">
       <c r="A35" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="C35" t="n" s="7">
+        <v>61</v>
+      </c>
+      <c r="C35" t="n" s="5">
         <v>85800.0</v>
       </c>
     </row>
     <row r="36" ht="15.0" customHeight="true">
       <c r="A36" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="C36" t="n" s="7">
+        <v>63</v>
+      </c>
+      <c r="C36" t="n" s="5">
         <v>123700.0</v>
       </c>
     </row>
     <row r="37" ht="15.0" customHeight="true">
       <c r="A37" t="s" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="C37" t="n" s="7">
+        <v>65</v>
+      </c>
+      <c r="C37" t="n" s="5">
         <v>94500.0</v>
       </c>
     </row>
     <row r="38" ht="15.0" customHeight="true">
       <c r="A38" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="C38" t="n" s="7">
+        <v>67</v>
+      </c>
+      <c r="C38" t="n" s="5">
         <v>43400.0</v>
       </c>
     </row>
     <row r="39" ht="15.0" customHeight="true">
       <c r="A39" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="C39" t="n" s="7">
+        <v>51</v>
+      </c>
+      <c r="C39" t="n" s="5">
         <v>85100.0</v>
       </c>
     </row>
     <row r="40" ht="15.0" customHeight="true">
       <c r="A40" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="C40" t="n" s="7">
+        <v>70</v>
+      </c>
+      <c r="C40" t="n" s="5">
         <v>68700.0</v>
       </c>
     </row>
     <row r="41" ht="15.0" customHeight="true">
       <c r="A41" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="C41" t="n" s="7">
+        <v>72</v>
+      </c>
+      <c r="C41" t="n" s="5">
         <v>70700.0</v>
       </c>
     </row>
     <row r="42" ht="15.0" customHeight="true">
       <c r="A42" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="C42" t="n" s="7">
+        <v>74</v>
+      </c>
+      <c r="C42" t="n" s="5">
         <v>41900.0</v>
       </c>
     </row>
     <row r="43" ht="15.0" customHeight="true">
-      <c r="A43" t="s" s="6">
-        <v>73</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
+      <c r="A43" t="s" s="7">
+        <v>75</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
     </row>
     <row r="44" ht="15.0" customHeight="true">
       <c r="A44" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="C44" t="n" s="7">
+        <v>77</v>
+      </c>
+      <c r="C44" t="n" s="5">
         <v>114200.0</v>
       </c>
     </row>
     <row r="45" ht="15.0" customHeight="true">
-      <c r="A45" t="s" s="6">
-        <v>76</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
+      <c r="A45" t="s" s="7">
+        <v>78</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
     </row>
     <row r="46" ht="15.0" customHeight="true">
       <c r="A46" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C46" t="n" s="7">
+        <v>80</v>
+      </c>
+      <c r="C46" t="n" s="5">
         <v>76400.0</v>
       </c>
     </row>
     <row r="47" ht="15.0" customHeight="true">
       <c r="A47" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C47" t="n" s="7">
+        <v>80</v>
+      </c>
+      <c r="C47" t="n" s="5">
         <v>102700.0</v>
       </c>
     </row>
     <row r="48" ht="15.0" customHeight="true">
       <c r="A48" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="C48" t="n" s="7">
+        <v>77</v>
+      </c>
+      <c r="C48" t="n" s="5">
         <v>138500.0</v>
       </c>
     </row>
     <row r="49" ht="15.0" customHeight="true">
       <c r="A49" t="s" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="C49" t="n" s="7">
+        <v>84</v>
+      </c>
+      <c r="C49" t="n" s="5">
         <v>39800.0</v>
       </c>
     </row>
     <row r="50" ht="15.0" customHeight="true">
       <c r="A50" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="C50" t="n" s="7">
+        <v>63</v>
+      </c>
+      <c r="C50" t="n" s="5">
         <v>67500.0</v>
       </c>
     </row>
     <row r="51" ht="15.0" customHeight="true">
       <c r="A51" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="C51" t="n" s="7">
+        <v>87</v>
+      </c>
+      <c r="C51" t="n" s="5">
         <v>114900.0</v>
       </c>
     </row>
     <row r="52" ht="15.0" customHeight="true">
-      <c r="A52" t="s" s="6">
-        <v>86</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
+      <c r="A52" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
     </row>
     <row r="53" ht="15.0" customHeight="true">
       <c r="A53" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="C53" t="n" s="7">
+        <v>59</v>
+      </c>
+      <c r="C53" t="n" s="5">
         <v>60300.0</v>
       </c>
     </row>
     <row r="54" ht="15.0" customHeight="true">
       <c r="A54" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C54" t="n" s="7">
+        <v>80</v>
+      </c>
+      <c r="C54" t="n" s="5">
         <v>77600.0</v>
       </c>
     </row>
     <row r="55" ht="15.0" customHeight="true">
       <c r="A55" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="C55" t="n" s="7">
+        <v>90</v>
+      </c>
+      <c r="C55" t="n" s="5">
         <v>105000.0</v>
       </c>
     </row>
     <row r="56" ht="15.0" customHeight="true">
       <c r="A56" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="C56" t="n" s="7">
+        <v>90</v>
+      </c>
+      <c r="C56" t="n" s="5">
         <v>55400.0</v>
       </c>
     </row>
     <row r="57" ht="15.0" customHeight="true">
       <c r="A57" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="C57" t="n" s="7">
+        <v>77</v>
+      </c>
+      <c r="C57" t="n" s="5">
         <v>11000.0</v>
       </c>
     </row>
     <row r="58" ht="15.0" customHeight="true">
       <c r="A58" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="C58" t="n" s="7">
+        <v>57</v>
+      </c>
+      <c r="C58" t="n" s="5">
         <v>64600.0</v>
       </c>
     </row>
     <row r="59" ht="15.0" customHeight="true">
       <c r="A59" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="C59" t="n" s="7">
+        <v>72</v>
+      </c>
+      <c r="C59" t="n" s="5">
         <v>210500.0</v>
       </c>
     </row>
     <row r="60" ht="15.0" customHeight="true">
       <c r="A60" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="C60" t="n" s="7">
+        <v>94</v>
+      </c>
+      <c r="C60" t="n" s="5">
         <v>57700.0</v>
       </c>
     </row>
     <row r="61" ht="15.0" customHeight="true">
       <c r="A61" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="C61" t="n" s="7">
+        <v>95</v>
+      </c>
+      <c r="C61" t="n" s="5">
         <v>105000.0</v>
       </c>
     </row>
     <row r="62" ht="15.0" customHeight="true">
       <c r="A62" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="C62" t="n" s="7">
+        <v>77</v>
+      </c>
+      <c r="C62" t="n" s="5">
         <v>90700.0</v>
       </c>
     </row>
     <row r="63" ht="15.0" customHeight="true">
       <c r="A63" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="C63" t="n" s="7">
+        <v>96</v>
+      </c>
+      <c r="C63" t="n" s="5">
         <v>84600.0</v>
       </c>
     </row>
     <row r="64" ht="15.0" customHeight="true">
-      <c r="A64" t="s" s="6">
-        <v>95</v>
-      </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
+      <c r="A64" t="s" s="7">
+        <v>97</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
     </row>
     <row r="65" ht="15.0" customHeight="true">
       <c r="A65" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="C65" t="n" s="7">
+        <v>95</v>
+      </c>
+      <c r="C65" t="n" s="5">
         <v>43000.0</v>
       </c>
     </row>
     <row r="66" ht="15.0" customHeight="true">
-      <c r="A66" t="s" s="6">
-        <v>97</v>
-      </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
+      <c r="A66" t="s" s="7">
+        <v>99</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
     </row>
     <row r="67" ht="15.0" customHeight="true">
       <c r="A67" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="C67" t="n" s="7">
+        <v>55</v>
+      </c>
+      <c r="C67" t="n" s="5">
         <v>71800.0</v>
       </c>
     </row>
